--- a/AML/AML/WebContent/WEB-INF/classes/CustomerVolumeByLob.xlsx
+++ b/AML/AML/WebContent/WEB-INF/classes/CustomerVolumeByLob.xlsx
@@ -19,11 +19,11 @@
     <t>检索时间(年/月)</t>
   </si>
   <si>
-    <t>LOB</t>
+    <t>客户数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户数量</t>
+    <t>业务条线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31,6 +31,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,9 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,7 +411,7 @@
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -414,10 +419,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
